--- a/results/entsoe_export_final.xlsx
+++ b/results/entsoe_export_final.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="62">
   <si>
     <t>AL</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>LV</t>
+  </si>
+  <si>
+    <t>MD</t>
   </si>
   <si>
     <t>ME</t>
@@ -196,12 +199,6 @@
   </si>
   <si>
     <t>Wind Onshore</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>other renewable</t>
   </si>
   <si>
     <t>geography</t>
@@ -562,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -689,8 +686,11 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.4602645416143395</v>
+        <v>0.615899751724138</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -767,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01120970353477765</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.04127270900748611</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.2726711268409636</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.3030940114285715</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -811,8 +811,11 @@
       <c r="AN2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:40">
+      <c r="AO2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -835,16 +838,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.314453517524831</v>
+        <v>3.493500867243538</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006184706016668569</v>
+        <v>0.04393650108163498</v>
       </c>
       <c r="K3">
-        <v>2.121760210069642</v>
+        <v>3.176358813958784</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -871,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>6.235995871674849</v>
+        <v>6.244561061889251</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>1.215228724740267</v>
+        <v>1.155796793635432</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -922,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>5.800511158808083</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>4.76333385709394</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -933,8 +936,11 @@
       <c r="AN3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AO3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -990,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1.629864057540815</v>
+        <v>0.8750678131617897</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1011,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>2.677417282484586</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>3.81568484880803</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1035,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.7924844662632721</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1.044372450814073</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1055,8 +1061,11 @@
       <c r="AN4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AO4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1088,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.455194402317177</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1103,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>3.228772581344902</v>
+        <v>3.80707471740863</v>
       </c>
       <c r="Q5">
-        <v>5.485360182669255</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1127,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.1856941979678045</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1142,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>4.499082593903414</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2.442685049641352</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1177,8 +1186,11 @@
       <c r="AN5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:40">
+      <c r="AO5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1231,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>2.22321579175705</v>
+        <v>1.862916046339519</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1258,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.097645714285714</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.854683577706934</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1276,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.9909582155113245</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1.327196506450508</v>
+        <v>0.8168695002277127</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.7736030372879424</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1294,13 +1306,16 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>2.048636571428572</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.699119722247524</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1368,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>2.962195104286042</v>
+        <v>2.251269153307526</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1421,8 +1436,11 @@
       <c r="AN7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:40">
+      <c r="AO7">
+        <v>0.06420021873035826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1430,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.5654065441260417</v>
+        <v>1.044027431173859</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1454,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.369875844274461</v>
+        <v>5.89695068342252</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1469,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>2.012121694257336</v>
+        <v>2.313477694523512</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1487,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>21.22981049434867</v>
+        <v>17.88491609734715</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1543,8 +1561,11 @@
       <c r="AN8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:40">
+      <c r="AO8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1665,8 +1686,11 @@
       <c r="AN9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:40">
+      <c r="AO9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1674,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.311073907980365</v>
+        <v>8.364058123306387</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1698,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.461398136773604</v>
+        <v>3.18549733416828</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1758,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.2012839776230163</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.5343984205852214</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1779,16 +1803,19 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>10.13116652585911</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>9.769620134805875</v>
       </c>
       <c r="AN10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="AO10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1796,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.71423839707729</v>
+        <v>11.56747347745645</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.231044498565051</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1811,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13.7704959744263</v>
+        <v>11.027927763862</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.412084128325152</v>
+        <v>9.16535073682113</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.498506838680215</v>
+        <v>3.286431079813275</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1835,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>2.186948651672566</v>
+        <v>2.417212599624274</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1859,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>4.033267418655098</v>
+        <v>3.587347209438688</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1874,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>10.11873910720402</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>7.661819148411706</v>
       </c>
       <c r="AE11">
-        <v>10.08487624158009</v>
+        <v>0.1522590247933884</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>11.23397349299784</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1895,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.5646034524489096</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>0.3856479529773426</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1909,8 +1936,11 @@
       <c r="AN11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:40">
+      <c r="AO11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1942,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.044512547094417</v>
+        <v>6.351714570818626</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1996,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>1.900164284687276</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>3.28526202991209</v>
+        <v>2.12006768467494</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>0.7938621905385406</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2017,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>3.102292142938691</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>2.142735975065467</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2031,8 +2061,11 @@
       <c r="AN12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:40">
+      <c r="AO12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2076,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2731239990838296</v>
+        <v>0.02144622082431971</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2106,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>2.661813720716582</v>
+        <v>1.979908240538076</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2136,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0.2728865744023791</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.37700547328853</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -2153,8 +2186,11 @@
       <c r="AN13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:40">
+      <c r="AO13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2201,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>2.727305336225596</v>
+        <v>5.72656598428783</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2249,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>6.926961749058112</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>6.225086362518502</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2275,8 +2311,11 @@
       <c r="AN14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:40">
+      <c r="AO14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2314,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3.806027384333486</v>
+        <v>6.616169624900376</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2365,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0.05526430871104008</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>0.03822317585107594</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2380,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0.0001930220344788218</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>0.360656170795753</v>
+        <v>0.01687096037800296</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>0.1111123250597746</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2397,8 +2436,11 @@
       <c r="AN15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:40">
+      <c r="AO15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2412,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.012811393994749</v>
+        <v>4.604206094045315</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2421,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.685968393652244</v>
+        <v>8.065934152624388</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2430,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.29582309852723</v>
+        <v>12.63661333815325</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2439,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.25847336910606</v>
+        <v>10.87427701730616</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2448,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.01488480604188</v>
+        <v>10.49603308826548</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2463,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>15.13432166229022</v>
+        <v>13.52563194546283</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2519,8 +2561,11 @@
       <c r="AN16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:40">
+      <c r="AO16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2534,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1261333987898162</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2567,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7059864332303467</v>
+        <v>1.623831657942753</v>
       </c>
       <c r="Q17">
-        <v>1.963498442182317</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2582,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>1.048503845538673</v>
+        <v>0.6791714469982847</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2606,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.3483357643566617</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>0.5371395766252989</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -2641,13 +2686,16 @@
       <c r="AN17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:40">
+      <c r="AO17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7703429386916315</v>
+        <v>0.4010703724137931</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2659,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03780631578947369</v>
+        <v>0.01507885836274621</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2707,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0.05548933439890399</v>
+        <v>0.315152940054651</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2722,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.2193080351638315</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>0.1746592386206897</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2758,13 +2806,16 @@
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>0.00418747802260532</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40">
+        <v>0.02932442482758621</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2775,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.6732738577463181</v>
+        <v>1.590009511157918</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2823,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0.1020676515583971</v>
+        <v>0.3277246556985085</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2865,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0.3592380089051262</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>0.5303921925310259</v>
       </c>
       <c r="AJ19">
         <v>0</v>
       </c>
       <c r="AK19">
-        <v>1.140972247973513</v>
+        <v>0</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>0.5375095976887169</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -2885,8 +2936,11 @@
       <c r="AN19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:40">
+      <c r="AO19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2894,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01915918712181756</v>
+        <v>0.1075591302931596</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2942,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>4.160955994976596</v>
+        <v>3.138271645849937</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2984,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>1.898242694371504</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>0.7689357780568558</v>
+        <v>2.103982769042469</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>0.9620007618125924</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -2999,16 +3053,19 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>0.00365641739924649</v>
+        <v>0</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>0.008096460890356368</v>
       </c>
       <c r="AN20">
-        <v>0.003716424249343532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0.1713529805326273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3058,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.230384183708443</v>
+        <v>1.5916608</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -3129,8 +3186,11 @@
       <c r="AN21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:40">
+      <c r="AO21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3138,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.001051119990866537</v>
+        <v>0.004870277240122965</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3153,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.121111825550862</v>
+        <v>0.8610430148013206</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3177,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.09793317958671081</v>
+        <v>0.2106239897529318</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>3.027747633291471</v>
+        <v>2.571963408801093</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3207,16 +3267,16 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.07137094736842105</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1.046137551292269</v>
       </c>
       <c r="AB22">
-        <v>0.6576628591112642</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>0.417477764886713</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -3240,10 +3300,10 @@
         <v>0</v>
       </c>
       <c r="AK22">
-        <v>0.2449009134505595</v>
+        <v>0</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>0.4225490535693954</v>
       </c>
       <c r="AM22">
         <v>0</v>
@@ -3251,8 +3311,11 @@
       <c r="AN22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:40">
+      <c r="AO22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3272,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.1607248177859271</v>
+        <v>0.06555473169759762</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3326,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.1601000229832223</v>
+        <v>0.4758393066886963</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3344,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="AE23">
-        <v>2.280236300947597</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>2.158723885175908</v>
       </c>
       <c r="AG23">
         <v>0</v>
@@ -3359,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>0.2783197716634319</v>
+        <v>0</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>0.09425236530798131</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -3373,8 +3436,11 @@
       <c r="AN23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:40">
+      <c r="AO23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3388,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0935246763329147</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3406,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>3.800216326995332e-05</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3495,8 +3561,11 @@
       <c r="AN24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:40">
+      <c r="AO24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3534,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.113001786862655</v>
+        <v>0.1405009541153671</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3564,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>2.664753344058837</v>
+        <v>1.45218698433227</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -3600,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0.027789307384087</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>0.02323884303783045</v>
       </c>
       <c r="AK25">
         <v>0</v>
@@ -3617,19 +3686,22 @@
       <c r="AN25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:40">
+      <c r="AO25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.970078551881414</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.3254583055492121</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3683,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>1.101178105263158</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -3719,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>0.7828813700194086</v>
+        <v>0</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -3739,25 +3811,28 @@
       <c r="AN26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:40">
+      <c r="AO26">
+        <v>0.08913232721617417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2.173498026563633</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.3695031198243413</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.01043314285714285</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3793,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>2.687876835255166</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3805,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1.63259193515883</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -3841,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0.1450515583970773</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>1.076386273198224</v>
       </c>
       <c r="AJ27">
         <v>0</v>
@@ -3861,8 +3936,11 @@
       <c r="AN27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:40">
+      <c r="AO27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3879,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.004224240464533758</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3915,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>2.816354350344827</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3927,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>0.01848562177058216</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -3966,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>0.03380392428555164</v>
       </c>
       <c r="AJ28">
         <v>0</v>
@@ -3983,8 +4061,11 @@
       <c r="AN28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:40">
+      <c r="AO28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -3998,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>5.425780381322069</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -4016,10 +4097,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>3.926640246603494</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>2.047771229331417</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4034,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6.199046653727595</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -4049,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>0.0004940281225093931</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -4073,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>1.466725434410321</v>
+        <v>0</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -4105,8 +4186,11 @@
       <c r="AN29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:40">
+      <c r="AO29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -4120,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>6.466171086246159</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -4138,10 +4222,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>7.605708954343617</v>
       </c>
       <c r="L30">
-        <v>3.289095467519123</v>
+        <v>1.047038602584538</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4150,13 +4234,13 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0.2431717593332572</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>4.783137279688033</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -4192,13 +4276,13 @@
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>2.358162196597785</v>
+        <v>0</v>
       </c>
       <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>0.1098712544119321</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -4213,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>5.976144208242951</v>
+        <v>0</v>
       </c>
       <c r="AK30">
         <v>0</v>
@@ -4227,8 +4311,11 @@
       <c r="AN30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:40">
+      <c r="AO30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -4257,13 +4344,13 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2.93889549035278</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0.01918519009019295</v>
+        <v>0.5832073884297518</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>8.14538067511101</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -4272,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.3041243122509393</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -4296,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>0.3846709122045896</v>
+        <v>0</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -4317,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>4.632197687464421</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -4335,13 +4422,13 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0.1884605137572782</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>11.09156238625754</v>
       </c>
       <c r="AL31">
-        <v>3.244850416714237</v>
+        <v>0</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -4349,8 +4436,11 @@
       <c r="AN31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:40">
+      <c r="AO31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -4379,10 +4469,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2.854096469201868</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.01204168547193442</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -4391,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3.51634440917913</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -4418,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>0.3806566688489127</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -4460,19 +4550,22 @@
         <v>0</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>0.01257471581464192</v>
       </c>
       <c r="AL32">
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>3.15487659108505</v>
       </c>
       <c r="AN32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:40">
+      <c r="AO32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -4489,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>2.694854371997255</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -4513,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>4.727370105146305</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -4531,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>0.1495030665601096</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -4573,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>0.9953326224454846</v>
+        <v>0</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -4591,27 +4684,30 @@
         <v>0</v>
       </c>
       <c r="AN33">
-        <v>0.03743619224088014</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1951792807398105</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0.5195163055143281</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.07564463523233246</v>
+        <v>3.112713190937038</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -4650,10 +4746,10 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>0.4080465806598927</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>0.4983028838908551</v>
+        <v>0.08260470226574063</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -4671,10 +4767,10 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.5237017833085968</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>2.205409759104921</v>
+        <v>0</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -4692,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>0.5249479255622788</v>
+        <v>0</v>
       </c>
       <c r="AH34">
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>0.6138459431287715</v>
       </c>
       <c r="AJ34">
         <v>0</v>
@@ -4715,25 +4811,28 @@
       <c r="AN34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:40">
+      <c r="AO34">
+        <v>0.07406232809827398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.1571405314285714</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.1977032542411477</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.2290530388250029</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4754,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>1.504736150062908</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>7.582658600296838</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -4772,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>0.3893121615621086</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>0.5103500516338381</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -4790,16 +4889,16 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>1.083637572982255</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>0.4985043773198223</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>3.075342063588751</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -4817,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>0.9615847381304794</v>
       </c>
       <c r="AI35">
         <v>0</v>
@@ -4837,8 +4936,11 @@
       <c r="AN35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:40">
+      <c r="AO35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -4870,19 +4972,19 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1.30502997602466</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>5.288245681013814</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>0.2733380377036109</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>15.8128311177075</v>
+        <v>2.935915126722077</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -4906,13 +5008,13 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>3.727442507135518</v>
+        <v>0</v>
       </c>
       <c r="X36">
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>0.7688555055264357</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4927,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="AD36">
-        <v>7.213876501883776</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>3.077928361685124</v>
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4959,8 +5061,11 @@
       <c r="AN36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:40">
+      <c r="AO36">
+        <v>1.60738504336895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -4968,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0.1675711291243293</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4992,10 +5097,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2.498028200045542</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>5.813900955823751</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -5004,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>18.22120524057839</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -5016,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>2.210548345701564</v>
+        <v>0</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -5025,10 +5130,10 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>5.216077885361955</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>4.740311841853581</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -5052,10 +5157,10 @@
         <v>0</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>3.2066665392235</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>3.789001688602983</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -5081,8 +5186,11 @@
       <c r="AN37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:40">
+      <c r="AO37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -5090,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.1990208159456683</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5111,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.02911532366708528</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -5138,16 +5246,16 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>3.621450150745758</v>
       </c>
       <c r="T38">
-        <v>8.752352126955131</v>
+        <v>0</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>3.907353425765684</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -5174,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="AE38">
-        <v>0.02681406096586368</v>
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -5201,10 +5309,13 @@
         <v>0</v>
       </c>
       <c r="AN38">
-        <v>2.953459646383467</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -5221,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.1283782857142857</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -5233,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>0.04122634680633041</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -5257,13 +5368,13 @@
         <v>0</v>
       </c>
       <c r="R39">
-        <v>2.673163155611371</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>9.263389317659113</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -5299,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>0.09260227137652283</v>
       </c>
       <c r="AG39">
         <v>0</v>
@@ -5325,8 +5436,11 @@
       <c r="AN39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:40">
+      <c r="AO39">
+        <v>3.289688624766646</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -5343,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>0.3247504863941705</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5379,13 +5493,13 @@
         <v>0</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>1.851539983448276</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3.826105770065076</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -5424,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="AG40">
-        <v>2.002728750434279</v>
+        <v>0</v>
       </c>
       <c r="AH40">
         <v>0</v>
@@ -5439,12 +5553,140 @@
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>0.02779162801377727</v>
+        <v>0</v>
       </c>
       <c r="AM40">
         <v>0</v>
       </c>
       <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1.978790617221873</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>1.318727241239682</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0.2412007166407465</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>1.47718442295133</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>2.687730532732079</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0.1719946951602766</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0.07212773615432481</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
         <v>0</v>
       </c>
     </row>
@@ -5455,7 +5697,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5463,67 +5705,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -5536,34 +5778,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.181539034136285</v>
+        <v>1.71347600000002</v>
       </c>
       <c r="E3">
-        <v>9.706788330859634</v>
+        <v>8.800967000000179</v>
       </c>
       <c r="F3">
-        <v>1.250143710469235</v>
+        <v>0.3316380000000002</v>
       </c>
       <c r="K3">
-        <v>4.316343233245802</v>
+        <v>5.665850750000006</v>
       </c>
       <c r="L3">
-        <v>26.9249123701335</v>
+        <v>28.39806924999986</v>
       </c>
       <c r="M3">
-        <v>4.899859844731118</v>
+        <v>5.277850250000035</v>
       </c>
       <c r="P3">
-        <v>0.1927199999999683</v>
+        <v>0.1932259999999469</v>
       </c>
       <c r="R3">
-        <v>1.338480794611251</v>
+        <v>0.9233179999999875</v>
       </c>
       <c r="S3">
-        <v>0.8759999999999198</v>
+        <v>0.8783000000007474</v>
       </c>
       <c r="U3">
-        <v>7.965173266354553</v>
+        <v>7.242169000000239</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -5571,16 +5813,16 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.05888106416993</v>
+        <v>1.994749491091882</v>
       </c>
       <c r="F4">
-        <v>7.649768522493678</v>
+        <v>8.493591289173148</v>
       </c>
       <c r="M4">
-        <v>5.353979369719111</v>
+        <v>4.185407462768404</v>
       </c>
       <c r="U4">
-        <v>0.1683894450787852</v>
+        <v>0.1502609739607153</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -5588,37 +5830,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.667142468318317</v>
+        <v>2.3703329310031</v>
       </c>
       <c r="E5">
-        <v>23.05145344445719</v>
+        <v>23.77492438557436</v>
       </c>
       <c r="G5">
-        <v>0.001619184838451877</v>
+        <v>0.001337076112945266</v>
       </c>
       <c r="K5">
-        <v>2.056862801689674</v>
+        <v>2.095353623787361</v>
       </c>
       <c r="L5">
-        <v>0.04499713665943655</v>
+        <v>0.1496635195832846</v>
       </c>
       <c r="O5">
-        <v>41.42138946911739</v>
+        <v>32.78982555806665</v>
       </c>
       <c r="P5">
-        <v>5.692647845644507</v>
+        <v>5.401204463110553</v>
       </c>
       <c r="R5">
-        <v>3.529545916200473</v>
+        <v>4.259811489411799</v>
       </c>
       <c r="S5">
-        <v>1.523441908893716</v>
+        <v>2.050619731356031</v>
       </c>
       <c r="T5">
-        <v>5.905158104806493</v>
+        <v>7.568436676537061</v>
       </c>
       <c r="U5">
-        <v>3.362081799292154</v>
+        <v>4.090487850677445</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -5626,37 +5868,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2333096335198074</v>
+        <v>0.2537953862621598</v>
       </c>
       <c r="C6">
-        <v>18.40889147162913</v>
+        <v>14.55427361651928</v>
       </c>
       <c r="E6">
-        <v>2.196560748943962</v>
+        <v>2.193629465101596</v>
       </c>
       <c r="F6">
-        <v>0.5246188880008975</v>
+        <v>0.4835664117208154</v>
       </c>
       <c r="K6">
-        <v>0.417422650987556</v>
+        <v>0.450381499713066</v>
       </c>
       <c r="L6">
-        <v>1.091870642767433</v>
+        <v>1.089477671622085</v>
       </c>
       <c r="M6">
-        <v>1.802993821212382</v>
+        <v>1.829708621398313</v>
       </c>
       <c r="O6">
-        <v>16.55803718689341</v>
+        <v>16.6132183788887</v>
       </c>
       <c r="R6">
-        <v>1.333390213494687</v>
+        <v>1.430205414323208</v>
       </c>
       <c r="S6">
-        <v>0.03058649160863228</v>
+        <v>0.03715214361763551</v>
       </c>
       <c r="U6">
-        <v>1.251061815275708</v>
+        <v>1.429882395935328</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -5669,77 +5911,83 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <v>7.679946706245014</v>
+        <v>6.887972097233282</v>
       </c>
       <c r="L8">
-        <v>1.946741230734111</v>
+        <v>2.065465576454518</v>
       </c>
       <c r="M8">
-        <v>11.86207811850672</v>
+        <v>11.86418636781279</v>
       </c>
       <c r="O8">
-        <v>25.72486362826807</v>
+        <v>23.39495875606279</v>
       </c>
       <c r="R8">
-        <v>0.4195298915401255</v>
+        <v>2.372715066605723</v>
       </c>
       <c r="U8">
-        <v>0.07998213038018324</v>
+        <v>0.1276462662529868</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G9">
+        <v>4.271708258459268</v>
+      </c>
+      <c r="U9">
+        <v>0.2328581853318503</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.95362905104487</v>
+        <v>2.329222590800403</v>
       </c>
       <c r="C10">
-        <v>31.73955247316719</v>
+        <v>26.39440949954444</v>
       </c>
       <c r="D10">
-        <v>1.502347001598545</v>
+        <v>2.149651368723664</v>
       </c>
       <c r="E10">
-        <v>5.338923932404663</v>
+        <v>5.411038022885143</v>
       </c>
       <c r="F10">
-        <v>1.995639625485257</v>
+        <v>1.694512459979507</v>
       </c>
       <c r="G10">
-        <v>0.05329950651130848</v>
+        <v>0.1058210238528942</v>
       </c>
       <c r="K10">
-        <v>1.14146160767298</v>
+        <v>1.298799934077101</v>
       </c>
       <c r="L10">
-        <v>0.843969030489896</v>
+        <v>1.057975225150861</v>
       </c>
       <c r="M10">
-        <v>1.076852856816638</v>
+        <v>1.033561835420701</v>
       </c>
       <c r="O10">
-        <v>28.58018815711355</v>
+        <v>28.34905976784708</v>
       </c>
       <c r="P10">
-        <v>0.983338759849273</v>
+        <v>0.889414629853133</v>
       </c>
       <c r="Q10">
-        <v>2.363059266872197</v>
+        <v>2.387048882557209</v>
       </c>
       <c r="R10">
-        <v>2.2496584309695</v>
+        <v>2.160195968974087</v>
       </c>
       <c r="S10">
-        <v>0.1862590497944105</v>
+        <v>0.1895877922691605</v>
       </c>
       <c r="U10">
-        <v>0.6865367435487538</v>
+        <v>0.6859470474780821</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -5747,52 +5995,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>41.02726147733754</v>
+        <v>40.27972749999998</v>
       </c>
       <c r="C11">
-        <v>102.8564348521522</v>
+        <v>83.36259350000006</v>
       </c>
       <c r="E11">
-        <v>44.30540744491368</v>
+        <v>59.12051125000055</v>
       </c>
       <c r="F11">
-        <v>44.88766291243298</v>
+        <v>34.86631499999977</v>
       </c>
       <c r="G11">
-        <v>4.058574057540824</v>
+        <v>3.889069500000279</v>
       </c>
       <c r="J11">
-        <v>0.03136758077406138</v>
+        <v>0.1977685000000153</v>
       </c>
       <c r="K11">
-        <v>8.952146434524551</v>
+        <v>10.56976349999996</v>
       </c>
       <c r="L11">
-        <v>14.5197750085626</v>
+        <v>14.36953199999994</v>
       </c>
       <c r="M11">
-        <v>1.3207922753739</v>
+        <v>1.212449249999998</v>
       </c>
       <c r="O11">
-        <v>71.03936001598396</v>
+        <v>60.9147597499999</v>
       </c>
       <c r="P11">
-        <v>2.522364441146257</v>
+        <v>2.628238749999961</v>
       </c>
       <c r="Q11">
-        <v>1.282988709898441</v>
+        <v>1.40974099999988</v>
       </c>
       <c r="R11">
-        <v>41.91955558739588</v>
+        <v>45.82280799999977</v>
       </c>
       <c r="S11">
-        <v>5.887901634889832</v>
+        <v>3.825633500000002</v>
       </c>
       <c r="T11">
-        <v>24.18538938919975</v>
+        <v>26.86521849999994</v>
       </c>
       <c r="U11">
-        <v>99.64032671652062</v>
+        <v>103.1020165000005</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -5800,28 +6048,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.706051065190101</v>
+        <v>3.045166729301874</v>
       </c>
       <c r="E12">
-        <v>2.618133873729868</v>
+        <v>1.825912699635579</v>
       </c>
       <c r="F12">
-        <v>3.815130517182329</v>
+        <v>3.860448267080391</v>
       </c>
       <c r="G12">
-        <v>0.2660143669368551</v>
+        <v>0.2483746935428814</v>
       </c>
       <c r="R12">
-        <v>0.9692516451649702</v>
+        <v>1.248366315738405</v>
       </c>
       <c r="S12">
-        <v>1.323963137344442</v>
+        <v>1.258889986620361</v>
       </c>
       <c r="T12">
-        <v>5.617469263614565</v>
+        <v>6.315284485195293</v>
       </c>
       <c r="U12">
-        <v>10.31552657152639</v>
+        <v>10.10458760840358</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -5829,34 +6077,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5714409607686028</v>
+        <v>0.5768865529673127</v>
       </c>
       <c r="D13">
-        <v>0.4835033055015375</v>
+        <v>0.4457353610320013</v>
       </c>
       <c r="E13">
-        <v>0.01648098364405824</v>
+        <v>0.02284270287048456</v>
       </c>
       <c r="H13">
-        <v>4.010583095047466</v>
+        <v>2.20233430926073</v>
       </c>
       <c r="I13">
-        <v>0.03600387052499757</v>
+        <v>0.02682574347875535</v>
       </c>
       <c r="L13">
-        <v>0.02223615235045325</v>
+        <v>0.01294263082355606</v>
       </c>
       <c r="Q13">
-        <v>0.05183659613404448</v>
+        <v>0.04055077514523418</v>
       </c>
       <c r="R13">
-        <v>0.01131783981693481</v>
+        <v>0.01627819298245646</v>
       </c>
       <c r="S13">
-        <v>0.1177374859888004</v>
+        <v>0.1347610413486757</v>
       </c>
       <c r="U13">
-        <v>0.7113941876430222</v>
+        <v>0.8815590093984982</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -5864,46 +6112,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.922343605209056</v>
-      </c>
-      <c r="C14">
-        <v>0.5224358327621664</v>
+        <v>3.832408478592578</v>
       </c>
       <c r="E14">
-        <v>77.0801176010963</v>
+        <v>61.57420731974477</v>
       </c>
       <c r="F14">
-        <v>10.5754804797808</v>
+        <v>5.138006441755832</v>
       </c>
       <c r="G14">
-        <v>2.172300877313232</v>
-      </c>
-      <c r="K14">
-        <v>3.218697587388492</v>
+        <v>1.843683854645857</v>
       </c>
       <c r="L14">
-        <v>8.73533210418096</v>
+        <v>10.10293032538144</v>
       </c>
       <c r="M14">
-        <v>17.94310779986293</v>
+        <v>23.59151883568656</v>
       </c>
       <c r="O14">
-        <v>55.96021691569535</v>
+        <v>55.8167970994647</v>
       </c>
       <c r="P14">
-        <v>0.3869140095956254</v>
+        <v>0.4314856868594887</v>
       </c>
       <c r="Q14">
-        <v>0.8592435229609345</v>
+        <v>0.8835608898884085</v>
       </c>
       <c r="R14">
-        <v>14.43123440712818</v>
+        <v>20.03435936267384</v>
       </c>
       <c r="S14">
-        <v>2.51660770390677</v>
+        <v>2.291911400592109</v>
       </c>
       <c r="U14">
-        <v>52.38465289924596</v>
+        <v>53.15200301992728</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -5911,37 +6153,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.948147012216046</v>
+        <v>5.972302972845303</v>
       </c>
       <c r="E15">
-        <v>4.490815650188363</v>
+        <v>4.152680390982566</v>
       </c>
       <c r="F15">
-        <v>4.667490818586567</v>
+        <v>3.023940137538424</v>
       </c>
       <c r="G15">
-        <v>0.01472868135631725</v>
+        <v>0.01716497711488002</v>
       </c>
       <c r="I15">
-        <v>3.718378472428355</v>
+        <v>2.756551916486424</v>
       </c>
       <c r="L15">
-        <v>11.44443144194545</v>
+        <v>14.40909523653647</v>
       </c>
       <c r="O15">
-        <v>22.89748486813566</v>
+        <v>22.3196955467951</v>
       </c>
       <c r="P15">
-        <v>0.8428252129238426</v>
+        <v>0.6417435311966333</v>
       </c>
       <c r="Q15">
-        <v>0.2045993560908659</v>
+        <v>0.2035895893202745</v>
       </c>
       <c r="S15">
-        <v>0.2511836739353956</v>
+        <v>0.1424181071387988</v>
       </c>
       <c r="U15">
-        <v>5.675830925904819</v>
+        <v>7.217757870260724</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -5949,37 +6191,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.076093522285753</v>
+        <v>2.91717001418809</v>
       </c>
       <c r="E16">
-        <v>37.85957769599996</v>
+        <v>34.5130841250711</v>
       </c>
       <c r="F16">
-        <v>1.59913950171427</v>
+        <v>1.481387337512187</v>
       </c>
       <c r="G16">
-        <v>1.63625887542855</v>
+        <v>1.574342528376107</v>
       </c>
       <c r="K16">
-        <v>10.47193025828574</v>
+        <v>8.745777818479167</v>
       </c>
       <c r="L16">
-        <v>40.37677020342852</v>
+        <v>41.3585566501994</v>
       </c>
       <c r="M16">
-        <v>13.80050900571432</v>
+        <v>17.62153840566573</v>
       </c>
       <c r="O16">
-        <v>378.0327412251434</v>
+        <v>334.2379409343018</v>
       </c>
       <c r="R16">
-        <v>11.42447663999997</v>
+        <v>12.45057271270691</v>
       </c>
       <c r="S16">
-        <v>1.746543771428579</v>
+        <v>1.703687698746431</v>
       </c>
       <c r="U16">
-        <v>32.71492280228575</v>
+        <v>38.34605538170926</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -5987,37 +6229,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.11225695399018</v>
+        <v>17.95070577929024</v>
       </c>
       <c r="E17">
-        <v>115.850529446284</v>
+        <v>94.86261690194799</v>
       </c>
       <c r="F17">
-        <v>6.125843297180054</v>
-      </c>
-      <c r="G17">
-        <v>0.003773430756935721</v>
+        <v>4.365754008913555</v>
       </c>
       <c r="K17">
-        <v>1.786863479849296</v>
+        <v>1.592066993165239</v>
       </c>
       <c r="L17">
-        <v>3.566680655325947</v>
+        <v>4.307708117574181</v>
       </c>
       <c r="O17">
-        <v>52.4844548761272</v>
+        <v>47.32813965707412</v>
       </c>
       <c r="P17">
-        <v>0.7765406461924866</v>
+        <v>1.481000928404627</v>
       </c>
       <c r="R17">
-        <v>11.00610190432699</v>
+        <v>11.22506450202038</v>
       </c>
       <c r="T17">
-        <v>20.03651527343305</v>
+        <v>27.30281062722025</v>
       </c>
       <c r="U17">
-        <v>27.30862842333607</v>
+        <v>26.36644647523626</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -6025,68 +6264,110 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>10.67862706406299</v>
+        <v>5.849022685877018</v>
       </c>
       <c r="E18">
-        <v>17.3075042274751</v>
+        <v>18.91269522511383</v>
       </c>
       <c r="K18">
-        <v>0.435280068516613</v>
+        <v>0.4689588127856861</v>
       </c>
       <c r="M18">
-        <v>2.925951038026742</v>
+        <v>2.437714366799544</v>
       </c>
       <c r="R18">
-        <v>3.636115715756954</v>
+        <v>3.975011385946928</v>
       </c>
       <c r="U18">
-        <v>5.804768541022987</v>
+        <v>7.45986726158751</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0.5018767078683934</v>
+      </c>
+      <c r="E19">
+        <v>2.936094410783457</v>
+      </c>
+      <c r="F19">
+        <v>1.112783035242566</v>
+      </c>
+      <c r="G19">
+        <v>0.02712663254384081</v>
+      </c>
+      <c r="J19">
+        <v>0.07859742245501058</v>
+      </c>
+      <c r="K19">
+        <v>0.4349952862104288</v>
+      </c>
+      <c r="L19">
+        <v>1.710693143190622</v>
+      </c>
+      <c r="M19">
+        <v>3.095907702858126</v>
+      </c>
+      <c r="Q19">
+        <v>0.3851317707811545</v>
+      </c>
+      <c r="R19">
+        <v>0.07814534525164311</v>
+      </c>
+      <c r="S19">
+        <v>0.02380706564563707</v>
+      </c>
+      <c r="U19">
+        <v>1.718048399282626</v>
+      </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9776406028085391</v>
+        <v>1.007065249999963</v>
       </c>
       <c r="C20">
-        <v>4.038277240552583</v>
+        <v>3.692313750000012</v>
       </c>
       <c r="E20">
-        <v>7.547344068957671</v>
+        <v>8.018829749999977</v>
+      </c>
+      <c r="F20">
+        <v>0.06088850000000683</v>
       </c>
       <c r="G20">
-        <v>0.006177955246032659</v>
+        <v>0.003694249999999993</v>
+      </c>
+      <c r="J20">
+        <v>0.0002877500000000006</v>
       </c>
       <c r="L20">
-        <v>0.09419950336796498</v>
+        <v>0.1141977499999877</v>
       </c>
       <c r="M20">
-        <v>0.1050557426646884</v>
+        <v>0.1128304999999905</v>
       </c>
       <c r="O20">
-        <v>15.35826597670969</v>
+        <v>15.12921400000029</v>
       </c>
       <c r="P20">
-        <v>0.7092979700879136</v>
+        <v>0.5245497499999806</v>
       </c>
       <c r="Q20">
-        <v>0.1066069197396935</v>
+        <v>0.1199559999999866</v>
       </c>
       <c r="R20">
-        <v>0.1876041660006847</v>
+        <v>1.594002500000013</v>
       </c>
       <c r="S20">
-        <v>0.1326848966777069</v>
+        <v>0.1332527499999946</v>
       </c>
       <c r="U20">
-        <v>0.7031215150131211</v>
+        <v>0.6363244999999843</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -6126,43 +6407,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.116672094987994</v>
+        <v>5.728549097176354</v>
       </c>
       <c r="D22">
-        <v>5.796760019495522</v>
+        <v>6.279724472788352</v>
       </c>
       <c r="E22">
-        <v>113.8008120068694</v>
+        <v>109.102310639872</v>
       </c>
       <c r="F22">
-        <v>17.06642622217145</v>
+        <v>12.34920497745643</v>
       </c>
       <c r="G22">
-        <v>0.9691558557527077</v>
+        <v>0.9160861481270554</v>
       </c>
       <c r="J22">
-        <v>5.687874300719262</v>
+        <v>5.650416649493369</v>
       </c>
       <c r="K22">
-        <v>3.476653878296631</v>
+        <v>3.728908322605621</v>
       </c>
       <c r="L22">
-        <v>34.40102605776911</v>
+        <v>37.25477472492317</v>
       </c>
       <c r="M22">
-        <v>8.090648590021706</v>
+        <v>6.48040489650458</v>
       </c>
       <c r="P22">
-        <v>25.69882585030831</v>
+        <v>18.1610428158374</v>
       </c>
       <c r="R22">
-        <v>19.08521167713217</v>
+        <v>20.40495255021266</v>
       </c>
       <c r="S22">
-        <v>0.3374495216348764</v>
+        <v>0.2954158165205468</v>
       </c>
       <c r="U22">
-        <v>19.99674146608818</v>
+        <v>18.56271600936076</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -6170,28 +6451,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.408896006415419</v>
+        <v>0.4044300221450477</v>
       </c>
       <c r="E23">
-        <v>0.4018972390881063</v>
+        <v>1.531204163668452</v>
       </c>
       <c r="K23">
-        <v>0.5876576102646344</v>
+        <v>0.7744740868724328</v>
       </c>
       <c r="L23">
-        <v>0.3634210791614674</v>
+        <v>0.2602638154958383</v>
       </c>
       <c r="P23">
-        <v>0.1571059686103705</v>
+        <v>0.1410230277240184</v>
       </c>
       <c r="R23">
-        <v>0.07976728147554306</v>
+        <v>0.07411621905955323</v>
       </c>
       <c r="S23">
-        <v>0.1480930736625072</v>
+        <v>0.1479554223499718</v>
       </c>
       <c r="U23">
-        <v>1.421318781074576</v>
+        <v>1.503654595411594</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -6204,33 +6485,36 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5944854545454633</v>
+        <v>0.5270950726413035</v>
       </c>
       <c r="E25">
-        <v>2.762046855965226</v>
+        <v>1.69390638217865</v>
       </c>
       <c r="L25">
-        <v>2.038818287153647</v>
+        <v>2.51944228560857</v>
       </c>
       <c r="P25">
-        <v>0.6193632928784188</v>
+        <v>0.5667879653600687</v>
       </c>
       <c r="U25">
-        <v>0.1304100618273429</v>
+        <v>0.1490332555834009</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26">
-        <v>1.390450727251915</v>
-      </c>
-      <c r="M26">
-        <v>1.616881575522311</v>
+      <c r="B26">
+        <v>0.01699485809365333</v>
+      </c>
+      <c r="E26">
+        <v>5.19862572094128</v>
+      </c>
+      <c r="L26">
+        <v>0.2755121331114793</v>
       </c>
       <c r="U26">
-        <v>0.2916082886174261</v>
+        <v>0.002545209412883269</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -6238,99 +6522,93 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>3.979973560371441</v>
-      </c>
-      <c r="L27">
-        <v>0.8116910681114421</v>
+        <v>1.487016608636064</v>
+      </c>
+      <c r="M27">
+        <v>1.317894004112407</v>
       </c>
       <c r="U27">
-        <v>0.09682751543210236</v>
+        <v>0.3056689513365324</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C28">
+        <v>3.445391618071497</v>
+      </c>
+      <c r="L28">
+        <v>0.9063476908968497</v>
+      </c>
+      <c r="U28">
+        <v>0.1163410630461134</v>
+      </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E29">
-        <v>46.100821900902</v>
-      </c>
-      <c r="F29">
-        <v>15.97873830688437</v>
-      </c>
-      <c r="O29">
-        <v>3.714076981390593</v>
-      </c>
-      <c r="P29">
-        <v>22.84429354606692</v>
-      </c>
-      <c r="R29">
-        <v>0.1088294234501655</v>
-      </c>
-      <c r="T29">
-        <v>3.305382326749617</v>
-      </c>
-      <c r="U29">
-        <v>2.697962736613764</v>
-      </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>0.13483700000001</v>
+      </c>
       <c r="E30">
-        <v>2.961840219228141</v>
-      </c>
-      <c r="L30">
-        <v>10.40887845626854</v>
-      </c>
-      <c r="M30">
-        <v>114.6035541950214</v>
+        <v>49.66673274999993</v>
+      </c>
+      <c r="F30">
+        <v>12.12790150000006</v>
+      </c>
+      <c r="O30">
+        <v>3.865094499999989</v>
       </c>
       <c r="P30">
-        <v>0.1912686686458308</v>
+        <v>27.77284574999999</v>
+      </c>
+      <c r="R30">
+        <v>0.1013862499999929</v>
+      </c>
+      <c r="S30">
+        <v>1.139070750000008</v>
+      </c>
+      <c r="T30">
+        <v>3.595320750000007</v>
       </c>
       <c r="U30">
-        <v>5.230844256679601</v>
+        <v>3.897291249999959</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>2.065923836054353</v>
-      </c>
-      <c r="C31">
-        <v>37.77257293754995</v>
-      </c>
-      <c r="D31">
-        <v>0.5499097750884846</v>
-      </c>
       <c r="E31">
-        <v>10.57923967576212</v>
-      </c>
-      <c r="F31">
-        <v>76.22604160292259</v>
-      </c>
-      <c r="G31">
-        <v>1.621593113369131</v>
+        <v>2.045107098347616</v>
       </c>
       <c r="K31">
-        <v>0.9121781299235133</v>
+        <v>5.176835418567761</v>
       </c>
       <c r="L31">
-        <v>1.405731471629172</v>
+        <v>11.3052273349858</v>
       </c>
       <c r="M31">
-        <v>0.1252552985500618</v>
+        <v>127.008478098176</v>
+      </c>
+      <c r="P31">
+        <v>0.2664345014243475</v>
+      </c>
+      <c r="Q31">
+        <v>0.2413999260758921</v>
+      </c>
+      <c r="S31">
+        <v>0.288525152372262</v>
       </c>
       <c r="U31">
-        <v>14.56463862998052</v>
+        <v>9.294519885045027</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -6338,31 +6616,37 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.812288037447195</v>
+        <v>2.083424598770337</v>
+      </c>
+      <c r="C32">
+        <v>34.57618324632806</v>
+      </c>
+      <c r="D32">
+        <v>0.2864123039963662</v>
       </c>
       <c r="E32">
-        <v>16.14038450964722</v>
+        <v>12.46489556313336</v>
       </c>
       <c r="F32">
-        <v>5.176155885375051</v>
+        <v>70.45986092166676</v>
+      </c>
+      <c r="G32">
+        <v>1.59884401406128</v>
       </c>
       <c r="K32">
-        <v>2.987198004338388</v>
+        <v>1.062959508880821</v>
       </c>
       <c r="L32">
-        <v>5.19083556113713</v>
+        <v>1.487728688830699</v>
       </c>
       <c r="M32">
-        <v>1.903904340678149</v>
-      </c>
-      <c r="P32">
-        <v>0.2671414956045368</v>
+        <v>0.1369297947170662</v>
       </c>
       <c r="R32">
-        <v>1.052137106975677</v>
+        <v>2.42804062609657</v>
       </c>
       <c r="U32">
-        <v>13.42573861856375</v>
+        <v>15.21391005055221</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -6370,31 +6654,34 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.4319946212647559</v>
-      </c>
-      <c r="C33">
-        <v>12.59238743460298</v>
+        <v>3.283950938631436</v>
       </c>
       <c r="E33">
-        <v>9.328293078526738</v>
+        <v>16.61152560970055</v>
       </c>
       <c r="F33">
-        <v>1.138036163377671</v>
+        <v>2.220826420357485</v>
+      </c>
+      <c r="K33">
+        <v>3.349677680120671</v>
       </c>
       <c r="L33">
-        <v>10.35023652817963</v>
+        <v>7.542265342821341</v>
       </c>
       <c r="M33">
-        <v>5.346664631408409</v>
-      </c>
-      <c r="O33">
-        <v>11.28248227936066</v>
+        <v>2.973604272173511</v>
+      </c>
+      <c r="P33">
+        <v>0.211331030001138</v>
       </c>
       <c r="R33">
-        <v>1.37155991660875</v>
+        <v>1.269661275361599</v>
+      </c>
+      <c r="T33">
+        <v>0.07511636886682481</v>
       </c>
       <c r="U33">
-        <v>6.669325656706019</v>
+        <v>12.01838714567909</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -6402,82 +6689,79 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.120777787418658</v>
+        <v>0.4797473095753181</v>
       </c>
       <c r="C34">
-        <v>23.17540359401742</v>
+        <v>8.772017346350912</v>
       </c>
       <c r="E34">
-        <v>0.0172219659778516</v>
-      </c>
-      <c r="K34">
-        <v>0.7392233862313058</v>
+        <v>10.17492120653534</v>
+      </c>
+      <c r="F34">
+        <v>0.8467291999886114</v>
       </c>
       <c r="L34">
-        <v>8.855656919739689</v>
+        <v>9.65655369850848</v>
       </c>
       <c r="M34">
-        <v>0.6352455166114912</v>
-      </c>
-      <c r="P34">
-        <v>0.4783166023518589</v>
+        <v>5.755206614653306</v>
+      </c>
+      <c r="O34">
+        <v>11.48818396390753</v>
+      </c>
+      <c r="R34">
+        <v>1.341943390014758</v>
+      </c>
+      <c r="U34">
+        <v>6.885281944096542</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B35">
+        <v>0.1714637605601886</v>
+      </c>
+      <c r="C35">
+        <v>24.35932765268127</v>
+      </c>
+      <c r="E35">
+        <v>0.01610391671410783</v>
+      </c>
+      <c r="K35">
+        <v>0.7103674376067667</v>
+      </c>
+      <c r="L35">
+        <v>8.425405615507241</v>
+      </c>
+      <c r="M35">
+        <v>0.6256976177843138</v>
+      </c>
+      <c r="P35">
+        <v>0.339195308664447</v>
+      </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M36">
-        <v>65.52872144765381</v>
-      </c>
-      <c r="O36">
-        <v>64.41480528827447</v>
-      </c>
-      <c r="P36">
-        <v>8.994485767781688</v>
-      </c>
-      <c r="U36">
-        <v>19.50119816417403</v>
-      </c>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>0.08978698900090668</v>
-      </c>
-      <c r="C37">
-        <v>4.020771750687449</v>
-      </c>
-      <c r="E37">
-        <v>0.3578020394133688</v>
-      </c>
-      <c r="G37">
-        <v>0.0001756416131989002</v>
-      </c>
-      <c r="K37">
-        <v>0.2021966177818517</v>
-      </c>
-      <c r="L37">
-        <v>4.337253849679175</v>
+      <c r="M37">
+        <v>73.10084525947863</v>
       </c>
       <c r="O37">
-        <v>5.532012263977679</v>
-      </c>
-      <c r="R37">
-        <v>0.2451589585474499</v>
-      </c>
-      <c r="S37">
-        <v>0.07368717690192274</v>
+        <v>47.46084370454277</v>
+      </c>
+      <c r="P37">
+        <v>6.809653638961622</v>
       </c>
       <c r="U37">
-        <v>0.004714220898258734</v>
+        <v>26.87137365068886</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -6485,53 +6769,85 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8222118598013373</v>
+        <v>0.0994086588295677</v>
       </c>
       <c r="C38">
-        <v>1.26097794725425</v>
+        <v>3.905888342365934</v>
       </c>
       <c r="E38">
-        <v>2.697490932754867</v>
-      </c>
-      <c r="F38">
-        <v>0.3796003333713893</v>
-      </c>
-      <c r="G38">
-        <v>0.5294754424021054</v>
+        <v>0.4167437231014399</v>
       </c>
       <c r="K38">
-        <v>0.4855834318986122</v>
+        <v>0.2893894734714472</v>
       </c>
       <c r="L38">
-        <v>3.985257938120784</v>
-      </c>
-      <c r="M38">
-        <v>0.3220447631008092</v>
+        <v>4.786052445633628</v>
       </c>
       <c r="O38">
-        <v>15.3468059184838</v>
-      </c>
-      <c r="P38">
-        <v>1.249261609772802</v>
-      </c>
-      <c r="Q38">
-        <v>0.5445861673706801</v>
+        <v>6.040600860696366</v>
       </c>
       <c r="R38">
-        <v>0.5203444000456701</v>
+        <v>0.261734899237144</v>
+      </c>
+      <c r="S38">
+        <v>0.078868489582155</v>
       </c>
       <c r="U38">
-        <v>0.003948450736385461</v>
+        <v>0.005256299214391204</v>
       </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B39">
+        <v>0.9012014907513112</v>
+      </c>
+      <c r="C39">
+        <v>1.031962533911855</v>
+      </c>
+      <c r="E39">
+        <v>3.328949447819139</v>
+      </c>
+      <c r="F39">
+        <v>0.09637426079013475</v>
+      </c>
+      <c r="G39">
+        <v>3.315953982187775</v>
+      </c>
+      <c r="K39">
+        <v>0.7212453841961135</v>
+      </c>
+      <c r="L39">
+        <v>4.103467966202323</v>
+      </c>
+      <c r="M39">
+        <v>0.3802605435030816</v>
+      </c>
+      <c r="O39">
+        <v>15.41956679424519</v>
+      </c>
+      <c r="P39">
+        <v>1.188918110984257</v>
+      </c>
+      <c r="Q39">
+        <v>0.5109995213518892</v>
+      </c>
+      <c r="R39">
+        <v>0.5195658771408823</v>
+      </c>
+      <c r="U39">
+        <v>0.003773168303265609</v>
+      </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -6541,7 +6857,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6549,77 +6865,77 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>0</v>
       </c>
     </row>
@@ -6643,7 +6959,7 @@
         <v>1019.20898860662</v>
       </c>
       <c r="K3">
-        <v>457.1114707153126</v>
+        <v>457.1114707153127</v>
       </c>
       <c r="L3">
         <v>6.124798235369195</v>
@@ -6655,19 +6971,19 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>598.9338341258622</v>
+      </c>
+      <c r="Q3">
+        <v>65.12790286978316</v>
+      </c>
+      <c r="R3">
         <v>131.5369258504069</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>19.34083245861691</v>
-      </c>
-      <c r="T3">
-        <v>630.0063890279965</v>
-      </c>
-      <c r="U3">
-        <v>56.80857796052971</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -6681,16 +6997,16 @@
         <v>1151.667540730953</v>
       </c>
       <c r="M4">
-        <v>34.48737991090262</v>
-      </c>
-      <c r="S4">
+        <v>34.48737991090261</v>
+      </c>
+      <c r="P4">
+        <v>1173.188278292562</v>
+      </c>
+      <c r="Q4">
+        <v>34.03306847637562</v>
+      </c>
+      <c r="U4">
         <v>21.37856199761801</v>
-      </c>
-      <c r="T4">
-        <v>1175.664046735913</v>
-      </c>
-      <c r="U4">
-        <v>34.0876625707384</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -6701,25 +7017,25 @@
         <v>86.30839689697839</v>
       </c>
       <c r="D5">
-        <v>995.8558245419133</v>
+        <v>995.8558245419132</v>
       </c>
       <c r="E5">
-        <v>491.1388689151322</v>
+        <v>491.1388689151323</v>
       </c>
       <c r="F5">
         <v>1097.032589259853</v>
       </c>
       <c r="G5">
-        <v>920.4263122737657</v>
+        <v>920.4263122737658</v>
       </c>
       <c r="H5">
-        <v>920.4263122737657</v>
+        <v>920.4263122737658</v>
       </c>
       <c r="K5">
         <v>448.2368269014385</v>
       </c>
       <c r="L5">
-        <v>9.192443678400775</v>
+        <v>9.192443678400773</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -6728,22 +7044,22 @@
         <v>14.8994383885413</v>
       </c>
       <c r="P5">
+        <v>215.0859424434695</v>
+      </c>
+      <c r="Q5">
+        <v>84.57112589457465</v>
+      </c>
+      <c r="R5">
         <v>125.7444747654966</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>19.50032063202299</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>19.95097742309456</v>
-      </c>
-      <c r="T5">
-        <v>185.1913170524467</v>
-      </c>
-      <c r="U5">
-        <v>93.17412274959645</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -6757,7 +7073,7 @@
         <v>1146.441710698507</v>
       </c>
       <c r="E6">
-        <v>939.4598461427084</v>
+        <v>939.4598461427083</v>
       </c>
       <c r="F6">
         <v>1481.253899684875</v>
@@ -6772,10 +7088,10 @@
         <v>894.5668149674123</v>
       </c>
       <c r="L6">
-        <v>4.672487085066504</v>
+        <v>4.672487085066503</v>
       </c>
       <c r="M6">
-        <v>34.48737991090262</v>
+        <v>34.48737991090261</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -6784,29 +7100,29 @@
         <v>12.60031756423998</v>
       </c>
       <c r="P6">
+        <v>581.2454136789975</v>
+      </c>
+      <c r="Q6">
+        <v>101.5493075287191</v>
+      </c>
+      <c r="R6">
         <v>84.47653976118191</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>18.6412378445956</v>
-      </c>
-      <c r="T6">
-        <v>640.8926594345301</v>
-      </c>
-      <c r="U6">
-        <v>100.1093723871573</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
       </c>
     </row>
@@ -6833,22 +7149,22 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.85304046032027</v>
+        <v>14.85304046032028</v>
       </c>
       <c r="P8">
+        <v>14.85304046032028</v>
+      </c>
+      <c r="Q8">
+        <v>69.32134444016592</v>
+      </c>
+      <c r="R8">
         <v>138.4539826729882</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>55.74454925405739</v>
-      </c>
-      <c r="T8">
-        <v>14.85304046032027</v>
-      </c>
-      <c r="U8">
-        <v>67.12613749362828</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -6868,19 +7184,19 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>71.67221970175426</v>
+        <v>1072.600991104684</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>25.76939055415282</v>
+      </c>
+      <c r="R9">
+        <v>71.67221970175427</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>25.76939055415282</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -6924,19 +7240,19 @@
         <v>16.04159582143633</v>
       </c>
       <c r="P10">
+        <v>708.0035237248327</v>
+      </c>
+      <c r="Q10">
+        <v>233.1058863689983</v>
+      </c>
+      <c r="R10">
         <v>131.5614223739547</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>27.84497027814678</v>
-      </c>
-      <c r="T10">
-        <v>751.5670126524659</v>
-      </c>
-      <c r="U10">
-        <v>226.6111788189614</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -6944,13 +7260,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>227.5163976369612</v>
+        <v>227.5163976369611</v>
       </c>
       <c r="C11">
         <v>1227.130536085051</v>
       </c>
       <c r="D11">
-        <v>924.6770831757517</v>
+        <v>924.6770831757515</v>
       </c>
       <c r="E11">
         <v>546.1553268233474</v>
@@ -6968,7 +7284,7 @@
         <v>77.76804239326515</v>
       </c>
       <c r="K11">
-        <v>977.3725697948488</v>
+        <v>977.3725697948489</v>
       </c>
       <c r="L11">
         <v>6.463849311932655</v>
@@ -6983,22 +7299,22 @@
         <v>12.71141231745579</v>
       </c>
       <c r="P11">
+        <v>726.3055476692875</v>
+      </c>
+      <c r="Q11">
+        <v>112.7753106932138</v>
+      </c>
+      <c r="R11">
         <v>120.7969325527248</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>16.71231879294449</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>20.55723116876622</v>
-      </c>
-      <c r="T11">
-        <v>758.6983210535134</v>
-      </c>
-      <c r="U11">
-        <v>108.4940640427611</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -7006,7 +7322,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>75.5369541587952</v>
+        <v>75.53695415879521</v>
       </c>
       <c r="E12">
         <v>505.7757815009732</v>
@@ -7027,22 +7343,22 @@
         <v>0</v>
       </c>
       <c r="P12">
+        <v>843.1816263332762</v>
+      </c>
+      <c r="Q12">
+        <v>27.94296084380127</v>
+      </c>
+      <c r="R12">
         <v>112.5584284853858</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>16.37948890946834</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>13.85440804342991</v>
-      </c>
-      <c r="T12">
-        <v>802.7619403715737</v>
-      </c>
-      <c r="U12">
-        <v>28.44978097738418</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -7056,7 +7372,7 @@
         <v>1186.503855125865</v>
       </c>
       <c r="E13">
-        <v>564.3373865221438</v>
+        <v>564.3373865221437</v>
       </c>
       <c r="F13">
         <v>1128.995092825912</v>
@@ -7077,19 +7393,19 @@
         <v>0</v>
       </c>
       <c r="P13">
+        <v>1174.533854910255</v>
+      </c>
+      <c r="Q13">
+        <v>33.23609496790204</v>
+      </c>
+      <c r="R13">
         <v>109.2388765373516</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13">
         <v>19.54409563345356</v>
-      </c>
-      <c r="T13">
-        <v>1176.626294289411</v>
-      </c>
-      <c r="U13">
-        <v>34.7072572662742</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -7103,19 +7419,19 @@
         <v>1072.329072238814</v>
       </c>
       <c r="D14">
-        <v>765.1089245795747</v>
+        <v>765.1089245795748</v>
       </c>
       <c r="E14">
-        <v>482.6394214776609</v>
+        <v>482.6394214776608</v>
       </c>
       <c r="F14">
         <v>1149.747692660189</v>
       </c>
       <c r="G14">
-        <v>867.1906367688492</v>
+        <v>867.1906367688493</v>
       </c>
       <c r="H14">
-        <v>867.1906367688492</v>
+        <v>867.1906367688493</v>
       </c>
       <c r="K14">
         <v>532.6872139706869</v>
@@ -7130,25 +7446,25 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.10651927159502</v>
+        <v>14.10651927159501</v>
       </c>
       <c r="P14">
+        <v>305.6278312279022</v>
+      </c>
+      <c r="Q14">
+        <v>50.14821346231003</v>
+      </c>
+      <c r="R14">
         <v>161.3527674468412</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>17.06816109551909</v>
       </c>
-      <c r="S14">
-        <v>15.28027045268901</v>
-      </c>
-      <c r="T14">
-        <v>359.4714326793094</v>
-      </c>
       <c r="U14">
-        <v>59.5640416994866</v>
+        <v>15.280270452689</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -7156,7 +7472,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>63.00427350087031</v>
+        <v>63.0042735008703</v>
       </c>
       <c r="D15">
         <v>1186.779865437884</v>
@@ -7177,7 +7493,7 @@
         <v>1067.151634751975</v>
       </c>
       <c r="L15">
-        <v>5.928229788631407</v>
+        <v>5.928229788631408</v>
       </c>
       <c r="M15">
         <v>51.80665193262517</v>
@@ -7189,22 +7505,22 @@
         <v>14.16261745899081</v>
       </c>
       <c r="P15">
+        <v>267.602877268344</v>
+      </c>
+      <c r="Q15">
+        <v>23.35638436478284</v>
+      </c>
+      <c r="R15">
         <v>114.4609292933488</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>18.77205517685805</v>
-      </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>18.77205517685804</v>
+      </c>
+      <c r="U15">
         <v>25.80328065843052</v>
-      </c>
-      <c r="T15">
-        <v>322.5542721769147</v>
-      </c>
-      <c r="U15">
-        <v>25.26025894002351</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -7224,16 +7540,16 @@
         <v>1071.657865604323</v>
       </c>
       <c r="G16">
-        <v>930.2200751098517</v>
+        <v>930.2200751098518</v>
       </c>
       <c r="H16">
-        <v>930.2200751098517</v>
+        <v>930.2200751098518</v>
       </c>
       <c r="K16">
         <v>86.41880099669019</v>
       </c>
       <c r="L16">
-        <v>6.01881099441784</v>
+        <v>6.018810994417841</v>
       </c>
       <c r="M16">
         <v>8.170177609625647</v>
@@ -7245,22 +7561,22 @@
         <v>12.56870771816575</v>
       </c>
       <c r="P16">
+        <v>79.47638188393384</v>
+      </c>
+      <c r="Q16">
+        <v>27.71194238817061</v>
+      </c>
+      <c r="R16">
         <v>102.4671811124742</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>17.41959684867616</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>16.96133251593368</v>
-      </c>
-      <c r="T16">
-        <v>77.41330046870978</v>
-      </c>
-      <c r="U16">
-        <v>29.41899718951123</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -7271,7 +7587,7 @@
         <v>56.22024344367749</v>
       </c>
       <c r="E17">
-        <v>516.9493985065111</v>
+        <v>516.9493985065112</v>
       </c>
       <c r="F17">
         <v>1064.798296764251</v>
@@ -7283,7 +7599,7 @@
         <v>1330.138171114857</v>
       </c>
       <c r="K17">
-        <v>809.5738528837212</v>
+        <v>809.5738528837211</v>
       </c>
       <c r="L17">
         <v>14.9362776731248</v>
@@ -7295,22 +7611,22 @@
         <v>14.99542169740628</v>
       </c>
       <c r="P17">
+        <v>371.1709932401419</v>
+      </c>
+      <c r="Q17">
+        <v>53.79668796888373</v>
+      </c>
+      <c r="R17">
         <v>117.9055594298692</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <v>21.29841402025168</v>
       </c>
-      <c r="S17">
-        <v>19.21921452512792</v>
-      </c>
-      <c r="T17">
-        <v>385.1996011575848</v>
-      </c>
       <c r="U17">
-        <v>58.2946707087913</v>
+        <v>19.21921452512793</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -7336,28 +7652,28 @@
         <v>1422.048333216095</v>
       </c>
       <c r="L18">
-        <v>6.160381946384717</v>
+        <v>6.160381946384718</v>
       </c>
       <c r="M18">
-        <v>34.48737991090262</v>
+        <v>34.48737991090261</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="P18">
+        <v>849.8811595653027</v>
+      </c>
+      <c r="Q18">
+        <v>84.18767918918171</v>
+      </c>
+      <c r="R18">
         <v>83.92934608596678</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
       <c r="S18">
-        <v>16.46267609494647</v>
-      </c>
-      <c r="T18">
-        <v>955.7395425649257</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>87.53526177316404</v>
+        <v>16.46267609494646</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -7379,11 +7695,14 @@
       <c r="H19">
         <v>825.8642638982104</v>
       </c>
+      <c r="J19">
+        <v>77.65133915815282</v>
+      </c>
       <c r="K19">
-        <v>547.6304830573224</v>
+        <v>547.6304830573225</v>
       </c>
       <c r="L19">
-        <v>7.565517525914563</v>
+        <v>7.565517525914562</v>
       </c>
       <c r="M19">
         <v>9.716884207222565</v>
@@ -7392,19 +7711,19 @@
         <v>0</v>
       </c>
       <c r="P19">
+        <v>731.750617023843</v>
+      </c>
+      <c r="Q19">
+        <v>55.84316668675943</v>
+      </c>
+      <c r="R19">
         <v>79.85294082360898</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>17.27245600458771</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -7415,7 +7734,7 @@
         <v>70.08984633811541</v>
       </c>
       <c r="C20">
-        <v>1413.932309946375</v>
+        <v>1413.932309946374</v>
       </c>
       <c r="D20">
         <v>1191.737043360345</v>
@@ -7423,17 +7742,23 @@
       <c r="E20">
         <v>682.4683896039745</v>
       </c>
+      <c r="F20">
+        <v>1151.667540730953</v>
+      </c>
       <c r="G20">
         <v>1100.04278384795</v>
       </c>
       <c r="H20">
         <v>1100.04278384795</v>
       </c>
+      <c r="J20">
+        <v>77.65133915815282</v>
+      </c>
       <c r="L20">
         <v>9.575313582876856</v>
       </c>
       <c r="M20">
-        <v>34.48737991090262</v>
+        <v>34.48737991090261</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -7442,19 +7767,19 @@
         <v>16.02285898673976</v>
       </c>
       <c r="P20">
+        <v>409.2140639556088</v>
+      </c>
+      <c r="Q20">
+        <v>71.14253794688443</v>
+      </c>
+      <c r="R20">
         <v>105.9860659567786</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>17.96869755933148</v>
-      </c>
-      <c r="T20">
-        <v>412.37576477108</v>
-      </c>
-      <c r="U20">
-        <v>47.97757748976301</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -7465,16 +7790,16 @@
         <v>143.2101239475357</v>
       </c>
       <c r="E21">
-        <v>459.8258226448146</v>
+        <v>459.8258226448147</v>
       </c>
       <c r="F21">
         <v>1032.832052627835</v>
       </c>
       <c r="G21">
-        <v>935.4254261236748</v>
+        <v>935.4254261236749</v>
       </c>
       <c r="H21">
-        <v>935.4254261236748</v>
+        <v>935.4254261236749</v>
       </c>
       <c r="I21">
         <v>1044.138885923433</v>
@@ -7483,13 +7808,13 @@
         <v>77.65133915815282</v>
       </c>
       <c r="K21">
-        <v>800.8961934797393</v>
+        <v>800.8961934797392</v>
       </c>
       <c r="L21">
         <v>7.788991908653268</v>
       </c>
       <c r="M21">
-        <v>34.48737991090262</v>
+        <v>34.48737991090261</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -7498,22 +7823,22 @@
         <v>15.55878582662968</v>
       </c>
       <c r="P21">
+        <v>934.4990697880258</v>
+      </c>
+      <c r="Q21">
+        <v>103.2826144300736</v>
+      </c>
+      <c r="R21">
         <v>109.2388765373516</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>16.57669196557627</v>
       </c>
-      <c r="S21">
-        <v>14.31709941206965</v>
-      </c>
-      <c r="T21">
-        <v>934.4990697880257</v>
-      </c>
       <c r="U21">
-        <v>103.2826144300736</v>
+        <v>14.31709941206966</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -7542,34 +7867,34 @@
         <v>941.0169540596986</v>
       </c>
       <c r="J22">
-        <v>79.04190033810187</v>
+        <v>79.04190033810188</v>
       </c>
       <c r="K22">
-        <v>625.9560733711663</v>
+        <v>625.9560733711664</v>
       </c>
       <c r="L22">
         <v>7.681302732299413</v>
       </c>
       <c r="M22">
-        <v>9.832669347383355</v>
+        <v>9.832669347383357</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>93.35621059160415</v>
+        <v>635.0286802862377</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>68.3086774569847</v>
+      </c>
+      <c r="R22">
+        <v>93.35621059160417</v>
       </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>22.1852454077148</v>
-      </c>
-      <c r="T22">
-        <v>646.2586200853953</v>
-      </c>
-      <c r="U22">
-        <v>65.65108418305223</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -7592,7 +7917,7 @@
         <v>1190.769074263772</v>
       </c>
       <c r="K23">
-        <v>939.8897449585263</v>
+        <v>939.8897449585264</v>
       </c>
       <c r="L23">
         <v>7.019965981178149</v>
@@ -7601,19 +7926,19 @@
         <v>0</v>
       </c>
       <c r="P23">
+        <v>633.1051986947907</v>
+      </c>
+      <c r="Q23">
+        <v>249.2447750630488</v>
+      </c>
+      <c r="R23">
         <v>121.5970013517965</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>15.60351211269584</v>
-      </c>
-      <c r="T23">
-        <v>633.1051986947907</v>
-      </c>
-      <c r="U23">
-        <v>203.9333722999471</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -7624,7 +7949,7 @@
         <v>52.26144548441864</v>
       </c>
       <c r="E24">
-        <v>505.5605549393732</v>
+        <v>505.5605549393733</v>
       </c>
       <c r="K24">
         <v>819.2093039942622</v>
@@ -7636,19 +7961,19 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>128.8331347666427</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>57.86992631045278</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -7667,37 +7992,40 @@
       <c r="N25">
         <v>0</v>
       </c>
+      <c r="P25">
+        <v>638.1112991590736</v>
+      </c>
       <c r="Q25">
-        <v>0</v>
+        <v>30.18134607839901</v>
       </c>
       <c r="S25">
-        <v>21.44011916078032</v>
-      </c>
-      <c r="T25">
-        <v>638.1112991590736</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>37.56670150992649</v>
+        <v>21.44011916078031</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26">
-        <v>1264.823017344338</v>
-      </c>
-      <c r="M26">
-        <v>34.48737991090262</v>
-      </c>
-      <c r="S26">
+      <c r="B26">
+        <v>131.315759290263</v>
+      </c>
+      <c r="E26">
+        <v>588.8676997144401</v>
+      </c>
+      <c r="L26">
+        <v>7.806542980228998</v>
+      </c>
+      <c r="P26">
+        <v>588.8676997144401</v>
+      </c>
+      <c r="Q26">
+        <v>15.03768794553781</v>
+      </c>
+      <c r="U26">
         <v>21.37856199761801</v>
-      </c>
-      <c r="T26">
-        <v>1264.823017344338</v>
-      </c>
-      <c r="U26">
-        <v>32.48441409519814</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -7707,78 +8035,48 @@
       <c r="C27">
         <v>1264.823017344338</v>
       </c>
-      <c r="L27">
-        <v>7.806542980228996</v>
-      </c>
-      <c r="S27">
+      <c r="M27">
+        <v>34.48737991090261</v>
+      </c>
+      <c r="P27">
+        <v>1264.823017344338</v>
+      </c>
+      <c r="Q27">
+        <v>32.01937667680118</v>
+      </c>
+      <c r="U27">
         <v>21.37856199761801</v>
-      </c>
-      <c r="T27">
-        <v>1264.823017344338</v>
-      </c>
-      <c r="U27">
-        <v>9.253012986076747</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T28">
-        <v>0</v>
+      <c r="C28">
+        <v>1264.823017344338</v>
+      </c>
+      <c r="L28">
+        <v>7.806542980228998</v>
+      </c>
+      <c r="P28">
+        <v>1264.823017344338</v>
+      </c>
+      <c r="Q28">
+        <v>9.350495736214</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>21.37856199761801</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>62.22994132086217</v>
-      </c>
-      <c r="D29">
-        <v>867.7886978677394</v>
-      </c>
-      <c r="E29">
-        <v>461.0260618012837</v>
-      </c>
-      <c r="F29">
-        <v>999.7561256337898</v>
-      </c>
-      <c r="G29">
-        <v>1083.886528864276</v>
-      </c>
-      <c r="H29">
-        <v>1083.886528864276</v>
-      </c>
-      <c r="L29">
-        <v>8.847733570392345</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>12.87917014280488</v>
-      </c>
       <c r="P29">
-        <v>119.8456930904302</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
-      </c>
-      <c r="R29">
-        <v>15.66787979509296</v>
-      </c>
-      <c r="S29">
-        <v>16.07349522076908</v>
-      </c>
-      <c r="T29">
-        <v>566.5647574881438</v>
-      </c>
-      <c r="U29">
-        <v>17.70184441569095</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -7786,40 +8084,49 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>267.3606867709516</v>
+        <v>62.22994132086217</v>
+      </c>
+      <c r="D30">
+        <v>867.7886978677394</v>
       </c>
       <c r="E30">
-        <v>452.0683122900653</v>
+        <v>461.0260618012837</v>
       </c>
       <c r="F30">
-        <v>1396.340419846775</v>
-      </c>
-      <c r="K30">
-        <v>43.42931033235404</v>
+        <v>999.7561256337898</v>
+      </c>
+      <c r="G30">
+        <v>1083.886528864276</v>
+      </c>
+      <c r="H30">
+        <v>1083.886528864276</v>
       </c>
       <c r="L30">
-        <v>7.806542980228996</v>
-      </c>
-      <c r="M30">
-        <v>6.564648467528559</v>
+        <v>8.847733570392345</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
+      <c r="O30">
+        <v>12.87917014280488</v>
+      </c>
+      <c r="P30">
+        <v>534.153611282793</v>
+      </c>
       <c r="Q30">
-        <v>0</v>
+        <v>15.73265995552884</v>
       </c>
       <c r="R30">
-        <v>15.58824921943225</v>
+        <v>119.8456930904302</v>
       </c>
       <c r="S30">
-        <v>13.94721751029156</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>452.0683122900653</v>
+        <v>15.66787979509296</v>
       </c>
       <c r="U30">
-        <v>6.960398629369958</v>
+        <v>16.07349522076908</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -7827,52 +8134,40 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>53.77171234743835</v>
-      </c>
-      <c r="C31">
-        <v>1157.713344024378</v>
-      </c>
-      <c r="D31">
-        <v>1185.895739920454</v>
+        <v>267.3606867709516</v>
       </c>
       <c r="E31">
-        <v>602.9704649936582</v>
+        <v>452.0683122900653</v>
       </c>
       <c r="F31">
-        <v>1182.360735608346</v>
-      </c>
-      <c r="G31">
-        <v>881.8301030424439</v>
-      </c>
-      <c r="H31">
-        <v>881.8301030424439</v>
+        <v>1396.340419846775</v>
       </c>
       <c r="K31">
-        <v>1450.324398115561</v>
+        <v>43.42931033235404</v>
       </c>
       <c r="L31">
-        <v>5.879375677729413</v>
+        <v>7.806542980228998</v>
       </c>
       <c r="M31">
-        <v>34.48737991090262</v>
+        <v>6.564648467528559</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="P31">
-        <v>109.1289592179235</v>
+        <v>452.0683122900653</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>8.338994799204027</v>
       </c>
       <c r="S31">
-        <v>17.14773757783522</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>1122.826718410692</v>
+        <v>15.58824921943225</v>
       </c>
       <c r="U31">
-        <v>88.93791856041469</v>
+        <v>13.94721751029156</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -7880,52 +8175,52 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>58.56551982980499</v>
+        <v>53.77171234743835</v>
+      </c>
+      <c r="C32">
+        <v>1157.713344024378</v>
+      </c>
+      <c r="D32">
+        <v>1185.895739920454</v>
       </c>
       <c r="E32">
-        <v>443.5907164012144</v>
+        <v>602.9704649936582</v>
       </c>
       <c r="F32">
-        <v>1067.120690105831</v>
+        <v>1182.360735608346</v>
       </c>
       <c r="G32">
-        <v>798.0841250506712</v>
+        <v>881.8301030424439</v>
       </c>
       <c r="H32">
-        <v>798.0841250506712</v>
-      </c>
-      <c r="J32">
-        <v>78.3140985417329</v>
+        <v>881.8301030424439</v>
       </c>
       <c r="K32">
-        <v>564.5666232538833</v>
+        <v>1450.324398115561</v>
       </c>
       <c r="L32">
-        <v>6.465255058433459</v>
+        <v>5.879375677729413</v>
       </c>
       <c r="M32">
-        <v>52.34367711599192</v>
+        <v>34.48737991090261</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>78.02852911302533</v>
+        <v>1110.713079859894</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>97.84451104848563</v>
       </c>
       <c r="R32">
-        <v>17.50609698655301</v>
+        <v>109.1289592179235</v>
       </c>
       <c r="S32">
-        <v>15.26744806966599</v>
-      </c>
-      <c r="T32">
-        <v>594.9984159288811</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>82.98472424793351</v>
+        <v>17.14773757783522</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -7933,52 +8228,52 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>60.21349835920935</v>
-      </c>
-      <c r="C33">
-        <v>1173.277053564696</v>
+        <v>58.56551982980499</v>
       </c>
       <c r="E33">
-        <v>685.9022839140235</v>
+        <v>443.5907164012144</v>
       </c>
       <c r="F33">
-        <v>1151.667540730953</v>
+        <v>1067.120690105831</v>
       </c>
       <c r="G33">
-        <v>1241.254541524727</v>
+        <v>798.0841250506712</v>
       </c>
       <c r="H33">
-        <v>1241.254541524727</v>
+        <v>798.0841250506712</v>
+      </c>
+      <c r="J33">
+        <v>78.3140985417329</v>
       </c>
       <c r="K33">
-        <v>630.4044232938229</v>
+        <v>564.5666232538834</v>
       </c>
       <c r="L33">
-        <v>5.088520029279485</v>
+        <v>6.465255058433459</v>
       </c>
       <c r="M33">
-        <v>34.48737991090262</v>
+        <v>52.34367711599192</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
-      <c r="O33">
-        <v>14.40212646383121</v>
-      </c>
       <c r="P33">
-        <v>98.76201021276172</v>
+        <v>517.1211940217388</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>84.28400554829511</v>
+      </c>
+      <c r="R33">
+        <v>78.02852911302533</v>
       </c>
       <c r="S33">
-        <v>25.11727134995729</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>659.4349786520977</v>
+        <v>17.50609698655301</v>
       </c>
       <c r="U33">
-        <v>23.41953434073351</v>
+        <v>15.26744806966599</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -7986,98 +8281,92 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>131.315759290263</v>
+        <v>60.21349835920936</v>
       </c>
       <c r="C34">
-        <v>1264.823017344338</v>
+        <v>1173.277053564696</v>
       </c>
       <c r="E34">
-        <v>588.8676997144401</v>
+        <v>685.9022839140235</v>
+      </c>
+      <c r="F34">
+        <v>1151.667540730953</v>
+      </c>
+      <c r="G34">
+        <v>1241.254541524727</v>
+      </c>
+      <c r="H34">
+        <v>1241.254541524727</v>
       </c>
       <c r="K34">
-        <v>667.6001307688819</v>
+        <v>630.4044232938229</v>
       </c>
       <c r="L34">
-        <v>7.806542980228996</v>
+        <v>5.088520029279485</v>
       </c>
       <c r="M34">
-        <v>34.48737991090262</v>
-      </c>
-      <c r="T34">
-        <v>1264.321078508106</v>
+        <v>34.48737991090261</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>14.40212646383121</v>
+      </c>
+      <c r="P34">
+        <v>588.5717169351294</v>
+      </c>
+      <c r="Q34">
+        <v>24.12976463040442</v>
+      </c>
+      <c r="R34">
+        <v>98.76201021276172</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>58.00514608461671</v>
+        <v>25.11727134995729</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
+      <c r="B35">
+        <v>131.315759290263</v>
+      </c>
+      <c r="C35">
+        <v>1264.823017344338</v>
+      </c>
+      <c r="E35">
+        <v>588.8676997144401</v>
+      </c>
+      <c r="K35">
+        <v>667.600130768882</v>
+      </c>
+      <c r="L35">
+        <v>7.806542980228998</v>
+      </c>
+      <c r="M35">
+        <v>34.48737991090261</v>
+      </c>
+      <c r="P35">
+        <v>1264.376439481437</v>
+      </c>
+      <c r="Q35">
+        <v>58.80530619594398</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>56.44559365743623</v>
-      </c>
-      <c r="D36">
-        <v>1186.176925067681</v>
-      </c>
-      <c r="E36">
-        <v>597.5111016941046</v>
-      </c>
-      <c r="F36">
-        <v>1282.156346018854</v>
-      </c>
-      <c r="G36">
-        <v>840.5883778053336</v>
-      </c>
-      <c r="H36">
-        <v>840.5883778053336</v>
-      </c>
-      <c r="I36">
-        <v>1190.616719586539</v>
-      </c>
-      <c r="K36">
-        <v>112.1827176519084</v>
-      </c>
-      <c r="L36">
-        <v>4.918267919389962</v>
-      </c>
-      <c r="M36">
-        <v>50.79668996947025</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>13.52658879446119</v>
-      </c>
       <c r="P36">
-        <v>123.9096894503439</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
-      </c>
-      <c r="R36">
-        <v>16.23447722408871</v>
-      </c>
-      <c r="S36">
-        <v>16.37384456607367</v>
-      </c>
-      <c r="T36">
-        <v>13.52658879446119</v>
-      </c>
-      <c r="U36">
-        <v>42.90197793574293</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -8085,46 +8374,58 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>204.9649417878482</v>
-      </c>
-      <c r="C37">
-        <v>1254.321848822922</v>
+        <v>56.44559365743623</v>
+      </c>
+      <c r="D37">
+        <v>1186.176925067681</v>
       </c>
       <c r="E37">
-        <v>586.5728985935148</v>
+        <v>597.5111016941046</v>
+      </c>
+      <c r="F37">
+        <v>1282.156346018854</v>
       </c>
       <c r="G37">
-        <v>973.7020603754947</v>
+        <v>840.5883778053336</v>
       </c>
       <c r="H37">
-        <v>973.7020603754947</v>
+        <v>840.5883778053336</v>
+      </c>
+      <c r="I37">
+        <v>1190.616719586539</v>
       </c>
       <c r="K37">
-        <v>477.224192917271</v>
+        <v>112.1827176519084</v>
       </c>
       <c r="L37">
-        <v>14.31181676121048</v>
+        <v>4.918267919389962</v>
+      </c>
+      <c r="M37">
+        <v>50.79668996947025</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>22.34850067517836</v>
+        <v>13.52658879446119</v>
       </c>
       <c r="P37">
-        <v>95.89048116145931</v>
+        <v>13.52658879446119</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>41.5442281251879</v>
+      </c>
+      <c r="R37">
+        <v>123.9096894503439</v>
       </c>
       <c r="S37">
-        <v>21.37856199761801</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>542.5437724078594</v>
+        <v>16.23447722408871</v>
       </c>
       <c r="U37">
-        <v>40.49821664232341</v>
+        <v>16.37384456607367</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -8132,52 +8433,46 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>116.8385506214097</v>
+        <v>204.9649417878483</v>
       </c>
       <c r="C38">
-        <v>1565.662981626836</v>
+        <v>1254.321848822922</v>
       </c>
       <c r="E38">
-        <v>721.295839509668</v>
-      </c>
-      <c r="F38">
-        <v>1409.90511791984</v>
+        <v>586.5728985935147</v>
       </c>
       <c r="G38">
-        <v>1399.71599796158</v>
+        <v>973.7020603754949</v>
       </c>
       <c r="H38">
-        <v>1399.71599796158</v>
+        <v>973.7020603754949</v>
       </c>
       <c r="K38">
-        <v>718.2477707624649</v>
+        <v>477.224192917271</v>
       </c>
       <c r="L38">
-        <v>19.2087914454064</v>
-      </c>
-      <c r="M38">
-        <v>65.08721474707649</v>
+        <v>14.31181676121048</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>27.2634716382783</v>
+        <v>22.34850067517836</v>
       </c>
       <c r="P38">
-        <v>110.9529580219115</v>
+        <v>509.3671126130347</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>45.68004819880234</v>
+      </c>
+      <c r="R38">
+        <v>95.89048116145932</v>
       </c>
       <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="U38">
         <v>21.37856199761801</v>
-      </c>
-      <c r="T38">
-        <v>277.7570502147003</v>
-      </c>
-      <c r="U38">
-        <v>97.75667042219592</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -8185,62 +8480,115 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>263.2052674378508</v>
+        <v>116.8385506214097</v>
       </c>
       <c r="C39">
-        <v>1279.011734528769</v>
-      </c>
-      <c r="D39">
-        <v>1646.380431469563</v>
+        <v>1565.662981626836</v>
       </c>
       <c r="E39">
-        <v>456.4693890621157</v>
+        <v>721.295839509668</v>
       </c>
       <c r="F39">
-        <v>1095.486823257147</v>
+        <v>1409.90511791984</v>
       </c>
       <c r="G39">
-        <v>962.8427021532531</v>
+        <v>1399.71599796158</v>
       </c>
       <c r="H39">
-        <v>962.8427021532531</v>
-      </c>
-      <c r="J39">
-        <v>75.48131535951137</v>
+        <v>1399.71599796158</v>
+      </c>
+      <c r="K39">
+        <v>718.2477707624649</v>
       </c>
       <c r="L39">
-        <v>4.813146830091764</v>
+        <v>19.2087914454064</v>
       </c>
       <c r="M39">
-        <v>50.96453520833773</v>
+        <v>65.08721474707649</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
+      <c r="O39">
+        <v>27.2634716382783</v>
+      </c>
       <c r="P39">
-        <v>77.15040668046207</v>
+        <v>397.3010356080193</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>118.3538808959762</v>
+      </c>
+      <c r="R39">
+        <v>110.9529580219115</v>
       </c>
       <c r="S39">
-        <v>13.04119876563753</v>
-      </c>
-      <c r="T39">
         <v>0</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>21.37856199761801</v>
       </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T40">
+      <c r="B40">
+        <v>263.2052674378508</v>
+      </c>
+      <c r="C40">
+        <v>1279.011734528769</v>
+      </c>
+      <c r="D40">
+        <v>1646.380431469563</v>
+      </c>
+      <c r="E40">
+        <v>456.4693890621157</v>
+      </c>
+      <c r="F40">
+        <v>1095.486823257147</v>
+      </c>
+      <c r="G40">
+        <v>962.842702153253</v>
+      </c>
+      <c r="H40">
+        <v>962.842702153253</v>
+      </c>
+      <c r="J40">
+        <v>75.48131535951138</v>
+      </c>
+      <c r="L40">
+        <v>4.813146830091764</v>
+      </c>
+      <c r="M40">
+        <v>50.96453520833773</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>77.15040668046208</v>
+      </c>
+      <c r="S40">
         <v>0</v>
       </c>
       <c r="U40">
+        <v>13.04119876563753</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>0</v>
       </c>
     </row>
